--- a/spec/fixtures/pop_test_sheet_no_header.xlsx
+++ b/spec/fixtures/pop_test_sheet_no_header.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="60">
   <si>
     <t>Title Page</t>
   </si>
@@ -136,9 +136,6 @@
     <t xml:space="preserve">Head, Tail, Fore Edge </t>
   </si>
   <si>
-    <t>Provenance</t>
-  </si>
-  <si>
     <t>University of Pennsylvania</t>
   </si>
   <si>
@@ -200,6 +197,9 @@
   </si>
   <si>
     <t>Curtis Collection</t>
+  </si>
+  <si>
+    <t>Title Page (non-evidence)</t>
   </si>
 </sst>
 </file>
@@ -813,13 +813,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y10"/>
+  <dimension ref="A1:X10"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" sqref="A1:XFD1"/>
+      <selection pane="bottomRight" activeCell="G1" sqref="G1:G1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
@@ -830,359 +830,340 @@
     <col min="4" max="4" width="14.1640625" style="1" customWidth="1"/>
     <col min="5" max="5" width="14.5" style="1"/>
     <col min="6" max="6" width="22.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="17.33203125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="15.1640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="12.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="20.5" style="1" customWidth="1"/>
-    <col min="11" max="12" width="14.5" style="1" customWidth="1"/>
-    <col min="13" max="13" width="15.5" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.33203125" style="1" customWidth="1"/>
-    <col min="15" max="15" width="30.1640625" style="1" customWidth="1"/>
-    <col min="16" max="16" width="41.83203125" style="1" customWidth="1"/>
-    <col min="17" max="17" width="34.1640625" style="1" customWidth="1"/>
-    <col min="18" max="18" width="23" style="1" customWidth="1"/>
-    <col min="19" max="19" width="22.1640625" style="1" customWidth="1"/>
-    <col min="20" max="22" width="18.1640625" style="1" customWidth="1"/>
-    <col min="23" max="23" width="8.1640625" style="1" customWidth="1"/>
-    <col min="24" max="24" width="17" style="1" customWidth="1"/>
-    <col min="25" max="25" width="18.1640625" style="1" customWidth="1"/>
-    <col min="26" max="26" width="16.83203125" style="1" customWidth="1"/>
-    <col min="27" max="27" width="18.5" style="1" customWidth="1"/>
-    <col min="28" max="28" width="17.5" style="1" customWidth="1"/>
-    <col min="29" max="29" width="22.6640625" style="1" customWidth="1"/>
-    <col min="30" max="30" width="17.33203125" style="1" customWidth="1"/>
-    <col min="31" max="16384" width="14.5" style="1"/>
+    <col min="7" max="7" width="15.1640625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="20.5" style="1" customWidth="1"/>
+    <col min="10" max="11" width="14.5" style="1" customWidth="1"/>
+    <col min="12" max="12" width="15.5" style="1" customWidth="1"/>
+    <col min="13" max="13" width="13.33203125" style="1" customWidth="1"/>
+    <col min="14" max="14" width="30.1640625" style="1" customWidth="1"/>
+    <col min="15" max="15" width="41.83203125" style="1" customWidth="1"/>
+    <col min="16" max="16" width="34.1640625" style="1" customWidth="1"/>
+    <col min="17" max="17" width="23" style="1" customWidth="1"/>
+    <col min="18" max="18" width="22.1640625" style="1" customWidth="1"/>
+    <col min="19" max="21" width="18.1640625" style="1" customWidth="1"/>
+    <col min="22" max="22" width="8.1640625" style="1" customWidth="1"/>
+    <col min="23" max="23" width="17" style="1" customWidth="1"/>
+    <col min="24" max="24" width="18.1640625" style="1" customWidth="1"/>
+    <col min="25" max="25" width="16.83203125" style="1" customWidth="1"/>
+    <col min="26" max="26" width="18.5" style="1" customWidth="1"/>
+    <col min="27" max="27" width="17.5" style="1" customWidth="1"/>
+    <col min="28" max="28" width="22.6640625" style="1" customWidth="1"/>
+    <col min="29" max="29" width="17.33203125" style="1" customWidth="1"/>
+    <col min="30" max="16384" width="14.5" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="15.75" customHeight="1">
+    <row r="1" spans="1:24" ht="15.75" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="H1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="J1" s="12" t="s">
+        <v>44</v>
+      </c>
       <c r="K1" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="L1" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="M1" s="1">
+        <v>1772</v>
+      </c>
+      <c r="N1" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="L1" s="12" t="s">
+    </row>
+    <row r="2" spans="1:24" ht="15.75" customHeight="1">
+      <c r="A2" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="B2" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="M1" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="N1" s="1">
-        <v>1772</v>
-      </c>
-      <c r="O1" s="12" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="2" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A2" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="B2" s="11" t="s">
-        <v>44</v>
-      </c>
       <c r="C2" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="G2" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="H2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="J2" s="12" t="s">
+        <v>44</v>
+      </c>
       <c r="K2" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="L2" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="M2" s="1">
+        <v>1772</v>
+      </c>
+      <c r="N2" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="L2" s="12" t="s">
+    </row>
+    <row r="3" spans="1:24" ht="15.75" customHeight="1">
+      <c r="A3" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="B3" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="M2" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="N2" s="1">
-        <v>1772</v>
-      </c>
-      <c r="O2" s="12" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="3" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A3" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="B3" s="11" t="s">
-        <v>44</v>
-      </c>
       <c r="C3" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="G3" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="H3" s="1" t="s">
+      <c r="G3" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="J3" s="12" t="s">
+        <v>44</v>
+      </c>
       <c r="K3" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="L3" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="M3" s="1">
+        <v>1772</v>
+      </c>
+      <c r="N3" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="L3" s="12" t="s">
+    </row>
+    <row r="4" spans="1:24" ht="15.75" customHeight="1">
+      <c r="A4" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="B4" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="M3" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="N3" s="1">
-        <v>1772</v>
-      </c>
-      <c r="O3" s="12" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="4" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A4" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="B4" s="11" t="s">
-        <v>44</v>
-      </c>
       <c r="C4" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="G4" s="12" t="s">
-        <v>38</v>
+      <c r="G4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J4" s="12" t="s">
+        <v>44</v>
       </c>
       <c r="K4" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="L4" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="M4" s="1">
+        <v>1772</v>
+      </c>
+      <c r="N4" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="L4" s="12" t="s">
+    </row>
+    <row r="5" spans="1:24" ht="15.75" customHeight="1">
+      <c r="A5" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="B5" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="M4" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="N4" s="1">
-        <v>1772</v>
-      </c>
-      <c r="O4" s="12" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="5" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A5" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="B5" s="11" t="s">
-        <v>44</v>
-      </c>
       <c r="C5" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G5" s="12" t="s">
+      <c r="G5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="J5" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="K5" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="L5" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="M5" s="1">
+        <v>1772</v>
+      </c>
+      <c r="N5" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="O5" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="X5" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="H5" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="K5" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="L5" s="12" t="s">
+    </row>
+    <row r="6" spans="1:24" ht="15.75" customHeight="1">
+      <c r="A6" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="B6" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="M5" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="N5" s="1">
-        <v>1772</v>
-      </c>
-      <c r="O5" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="P5" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="Y5" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="6" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A6" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="B6" s="11" t="s">
-        <v>44</v>
-      </c>
       <c r="C6" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G6" s="12" t="s">
-        <v>38</v>
+      <c r="G6" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="I6" s="1" t="s">
         <v>33</v>
       </c>
+      <c r="J6" s="12" t="s">
+        <v>44</v>
+      </c>
       <c r="K6" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="L6" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="M6" s="1">
+        <v>1772</v>
+      </c>
+      <c r="N6" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="L6" s="12" t="s">
+      <c r="O6" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q6" s="1">
+        <v>1921</v>
+      </c>
+      <c r="V6" s="1">
+        <v>1921</v>
+      </c>
+      <c r="W6" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" ht="15.75" customHeight="1">
+      <c r="A7" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="B7" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="M6" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="N6" s="1">
-        <v>1772</v>
-      </c>
-      <c r="O6" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="P6" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="R6" s="1">
-        <v>1921</v>
-      </c>
-      <c r="W6" s="1">
-        <v>1921</v>
-      </c>
-      <c r="X6" s="1" t="s">
+      <c r="C7" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D7" s="12" t="s">
         <v>40</v>
-      </c>
-    </row>
-    <row r="7" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A7" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="B7" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="D7" s="12" t="s">
-        <v>41</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G7" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="H7" s="1" t="s">
+      <c r="G7" s="1" t="s">
         <v>24</v>
       </c>
+      <c r="J7" s="12" t="s">
+        <v>44</v>
+      </c>
       <c r="K7" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="L7" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="M7" s="1">
+        <v>1772</v>
+      </c>
+      <c r="N7" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="L7" s="12" t="s">
+      <c r="O7" s="12" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" ht="15.75" customHeight="1">
+      <c r="A8" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="B8" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="M7" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="N7" s="1">
-        <v>1772</v>
-      </c>
-      <c r="O7" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="P7" s="12" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="8" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A8" s="12" t="s">
+      <c r="C8" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B8" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>58</v>
-      </c>
       <c r="D8" s="12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="G8" s="12" t="s">
-        <v>0</v>
+      <c r="G8" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="J8" s="12" t="s">
+        <v>44</v>
       </c>
       <c r="K8" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="L8" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="M8" s="1">
+        <v>1772</v>
+      </c>
+      <c r="N8" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="L8" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="M8" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="N8" s="1">
-        <v>1772</v>
-      </c>
-      <c r="O8" s="12" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="9" spans="1:25" ht="15.75" customHeight="1">
+    </row>
+    <row r="9" spans="1:24" ht="15.75" customHeight="1">
       <c r="A9" s="12"/>
     </row>
-    <row r="10" spans="1:25" ht="15.75" customHeight="1">
+    <row r="10" spans="1:24" ht="15.75" customHeight="1">
       <c r="A10" s="12"/>
     </row>
   </sheetData>
@@ -1208,13 +1189,13 @@
           <x14:formula1>
             <xm:f>'Value lists'!$A$2:$A$12</xm:f>
           </x14:formula1>
-          <xm:sqref>H1:H1048576</xm:sqref>
+          <xm:sqref>G1:G1048576</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>'Value lists'!$C$2:$C$14</xm:f>
           </x14:formula1>
-          <xm:sqref>I1:I1048576</xm:sqref>
+          <xm:sqref>H1:H1048576</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
